--- a/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
+++ b/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
+++ b/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
+++ b/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1746</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -598,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>014062</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>景顺长城专精特新量化优选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2252</t>
+          <t>0.1811</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -646,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.1227</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -674,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166109</t>
+          <t>014063</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银量化先锋混合（LOF）A</t>
+          <t>景顺长城专精特新量化优选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.1225</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -712,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003854</t>
+          <t>013626</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安丰华灵活配置混合A</t>
+          <t>华夏周期驱动混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.16</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.1057</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -750,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003855</t>
+          <t>013627</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安丰华灵活配置混合C</t>
+          <t>华夏周期驱动混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.16</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0655</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -788,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166110</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银量化先锋混合（LOF）C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -841,12 +831,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.88</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -855,7 +845,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +864,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26.88</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -958,36 +948,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014062</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城专精特新量化优选股票A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1811</t>
+          <t>0.2252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1006,26 +996,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1227</t>
+          <t>0.1161</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1034,36 +1024,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014063</t>
+          <t>166109</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城专精特新量化优选股票C</t>
+          <t>信达澳银量化先锋混合（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1225</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1072,36 +1062,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013626</t>
+          <t>003854</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合A</t>
+          <t>汇安丰华灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>29.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1057</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1110,36 +1100,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013627</t>
+          <t>003855</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合C</t>
+          <t>汇安丰华灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>29.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0655</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1148,36 +1138,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>166110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>信达澳银量化先锋混合（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1201,12 +1191,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>26.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1215,7 +1205,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1234,26 +1224,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>26.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1268,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,46 +1308,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
+++ b/数据整理/stocks/A股/科创板/688077-大地熊.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1811</t>
+          <t>0.1821</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>014063</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>景顺长城专精特新量化优选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1227</t>
+          <t>0.1228</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014063</t>
+          <t>012415</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城专精特新量化优选股票C</t>
+          <t>德邦上证G60综指增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1225</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -702,188 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013626</t>
+          <t>012416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合A</t>
+          <t>德邦上证G60综指增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1057</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013627</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏周期驱动混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004227</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信鑫利混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004228</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰信鑫利混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -948,36 +813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>014062</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>景顺长城专精特新量化优选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2252</t>
+          <t>0.1811</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -996,26 +861,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.1227</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1024,36 +889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166109</t>
+          <t>014063</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银量化先锋混合（LOF）A</t>
+          <t>景顺长城专精特新量化优选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.1225</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1062,36 +927,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003854</t>
+          <t>013626</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安丰华灵活配置混合A</t>
+          <t>华夏周期驱动混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.16</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.1057</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1100,36 +965,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003855</t>
+          <t>013627</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安丰华灵活配置混合C</t>
+          <t>华夏周期驱动混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.16</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0655</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1138,36 +1003,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166110</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银量化先锋混合（LOF）C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1191,12 +1056,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.88</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1205,7 +1070,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1224,26 +1089,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26.88</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1252,6 +1117,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
